--- a/Entities.xlsx
+++ b/Entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12016C33-4714-4857-9985-EF026BF26381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D3ABEC-5DAB-4A1E-8B13-111B4C0AE5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7A2F2D-DF29-483C-9A78-9BAADC6051DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>Services</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
     <t>{CLAIMS}</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t xml:space="preserve">City </t>
-  </si>
-  <si>
     <t>NationalCode</t>
   </si>
   <si>
@@ -159,6 +147,60 @@
   </si>
   <si>
     <t>FileInfos</t>
+  </si>
+  <si>
+    <t>ServiceExperts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert </t>
+  </si>
+  <si>
+    <t>SubServices</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Address(MOVE THIS TO A NEW TABLE)</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>DateRequested</t>
+  </si>
+  <si>
+    <t>DateCompleted?</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id </t>
+  </si>
+  <si>
+    <t>Votes</t>
+  </si>
+  <si>
+    <t>FileInfo</t>
+  </si>
+  <si>
+    <t>Expertise</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>ExpertSkills</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>Files</t>
   </si>
 </sst>
 </file>
@@ -213,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -222,15 +264,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,17 +588,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5396DD3C-FCB4-4B19-899C-71114372354C}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
@@ -567,20 +610,20 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -593,27 +636,59 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -625,36 +700,43 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -678,10 +760,10 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -693,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -711,10 +793,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -729,10 +811,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -740,10 +822,10 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -758,10 +840,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -769,12 +851,12 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="5"/>
       <c r="G23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -785,29 +867,25 @@
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -815,12 +893,12 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -831,40 +909,40 @@
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
         <v>19</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>21</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>22</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>23</v>
-      </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -872,12 +950,12 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -886,15 +964,137 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E23:F23"/>

--- a/Entities.xlsx
+++ b/Entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D3ABEC-5DAB-4A1E-8B13-111B4C0AE5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F275B2-0AA8-4D3F-A667-EA1C9637DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2670" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7A2F2D-DF29-483C-9A78-9BAADC6051DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Services</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Rating</t>
-  </si>
-  <si>
-    <t>ServiceId</t>
   </si>
   <si>
     <t>IsCustomer</t>
@@ -267,13 +264,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5396DD3C-FCB4-4B19-899C-71114372354C}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,20 +607,20 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="L1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -636,19 +633,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -656,10 +653,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -668,7 +665,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -685,10 +682,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -703,27 +700,27 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -731,12 +728,12 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -760,10 +757,10 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -793,10 +790,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -814,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -822,10 +819,10 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="5"/>
+      <c r="E20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -843,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -851,10 +848,10 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="1" t="s">
         <v>16</v>
       </c>
@@ -880,12 +877,12 @@
         <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>43</v>
+      <c r="A25" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -893,10 +890,10 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="1" t="s">
         <v>16</v>
       </c>
@@ -927,22 +924,19 @@
       <c r="J27" t="s">
         <v>22</v>
       </c>
-      <c r="K27" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -950,10 +944,10 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="1" t="s">
         <v>16</v>
       </c>
@@ -964,7 +958,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -975,10 +969,10 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="5"/>
+      <c r="E32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -993,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1006,10 +1000,10 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="E35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1018,22 +1012,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" t="s">
         <v>49</v>
-      </c>
-      <c r="F36" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1041,10 +1035,10 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="5"/>
+      <c r="E38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="6"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1053,7 +1047,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
@@ -1069,10 +1063,10 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="5"/>
+      <c r="E41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="6"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1081,10 +1075,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
